--- a/letterlang test/letterorder.xlsx
+++ b/letterlang test/letterorder.xlsx
@@ -480,12 +480,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -500,64 +500,64 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -566,94 +566,94 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
     </row>
@@ -689,43 +689,43 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>letter/lettgr066.png</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>letter/letten061.png</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -782,100 +782,100 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettkh157.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -888,12 +888,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>letter/letten041.png</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>letter/lettth152.png</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>letter/letten142.png</t>
         </is>
       </c>
     </row>
@@ -905,19 +905,19 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>letter/letten101.png</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>letter/lettth011.png</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>letter/letten101.png</t>
         </is>
       </c>
     </row>
@@ -929,19 +929,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>letter/lettkh157.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
     </row>
@@ -950,76 +950,76 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -1028,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -1052,40 +1052,40 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -1104,36 +1104,36 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1142,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -1169,19 +1169,19 @@
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -1190,70 +1190,70 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
     </row>
@@ -1262,70 +1262,70 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
@@ -1340,40 +1340,40 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1382,22 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
         <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
@@ -1430,94 +1430,94 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
@@ -1532,22 +1532,22 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1556,25 +1556,25 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>letter/letten062.png</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>letter/lettth132.png</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>letter/lettgr067.png</t>
         </is>
       </c>
     </row>
@@ -1601,19 +1601,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -1622,31 +1622,31 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
         <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
     </row>
@@ -1694,46 +1694,46 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -1752,60 +1752,60 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>letter/lettth011.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>letter/letten101.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
@@ -1814,94 +1814,94 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -1934,22 +1934,22 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
@@ -1961,43 +1961,43 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -2012,16 +2012,16 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -2033,19 +2033,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
@@ -2057,19 +2057,19 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2084,16 +2084,16 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
     </row>
@@ -2108,46 +2108,46 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>2</v>
@@ -2156,40 +2156,40 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettgr066.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2198,46 +2198,46 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
         <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -2246,46 +2246,46 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
     </row>
@@ -2294,22 +2294,22 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
@@ -2321,43 +2321,43 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
     </row>
@@ -2369,19 +2369,19 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
     </row>
@@ -2390,76 +2390,76 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
@@ -2468,40 +2468,40 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -2513,43 +2513,43 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2582,28 +2582,28 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>letter/lettkh157.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -2612,64 +2612,64 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
     </row>
@@ -2678,28 +2678,28 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/lettkh157.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
@@ -2708,40 +2708,40 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
     </row>
@@ -2750,46 +2750,46 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
     </row>
@@ -2804,16 +2804,16 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -2880,42 +2880,42 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2924,16 +2924,16 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth011.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten101.png</t>
         </is>
       </c>
     </row>
@@ -2948,11 +2948,11 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -2963,7 +2963,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -2972,40 +2972,40 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -3020,16 +3020,16 @@
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
@@ -3048,12 +3048,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
@@ -3062,70 +3062,70 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
         <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/letten101.png</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth011.png</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -3158,22 +3158,22 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3197,31 +3197,31 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
     </row>
@@ -3254,94 +3254,94 @@
         <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettkh157.png</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
@@ -3350,46 +3350,46 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
     </row>
@@ -3398,22 +3398,22 @@
         <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
         <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
     </row>
@@ -3470,22 +3470,22 @@
         <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -3494,28 +3494,28 @@
         <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" t="n">
         <v>3</v>
@@ -3528,12 +3528,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettgr066.png</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3542,22 @@
         <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -3569,19 +3569,19 @@
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
     </row>
@@ -3596,16 +3596,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettgr066.png</t>
         </is>
       </c>
     </row>
@@ -3614,70 +3614,70 @@
         <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
     </row>
@@ -3686,31 +3686,31 @@
         <v>2</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -3720,36 +3720,36 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>letter/lettth025.png</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>letter/letten051.png</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>letter/lettkh157.png</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
     </row>
@@ -3764,16 +3764,16 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -3782,46 +3782,46 @@
         <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
     </row>
@@ -3833,19 +3833,19 @@
         <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
     </row>
@@ -3854,70 +3854,70 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
     </row>
@@ -3929,43 +3929,43 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
@@ -3977,52 +3977,52 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
         <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -4032,18 +4032,18 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -4052,40 +4052,40 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>letter/letten101.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>letter/lettth011.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
         <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -4145,19 +4145,19 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
     </row>
@@ -4166,46 +4166,46 @@
         <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>letter/lettkh157.png</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>letter/letten051.png</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -4214,52 +4214,52 @@
         <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -4268,22 +4268,22 @@
         <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
@@ -4292,16 +4292,16 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
@@ -4316,22 +4316,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -4344,12 +4344,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4358,22 @@
         <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>letter/letten101.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>letter/lettth011.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
     </row>
@@ -4385,19 +4385,19 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
         <v>2</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
     </row>
@@ -4433,49 +4433,49 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -4484,16 +4484,16 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
         <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth011.png</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/letten101.png</t>
         </is>
       </c>
     </row>
@@ -4526,17 +4526,17 @@
         <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -4547,25 +4547,25 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
     </row>
@@ -4601,49 +4601,49 @@
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -4652,142 +4652,142 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="n">
         <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -4800,12 +4800,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
     </row>
@@ -4817,19 +4817,19 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -4841,49 +4841,49 @@
         <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
         <v>3</v>
@@ -4896,18 +4896,18 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -4916,64 +4916,64 @@
         <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>letter/lettkh157.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -4985,19 +4985,19 @@
         <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
         <v>2</v>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193" t="n">
         <v>3</v>
@@ -5060,16 +5060,16 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
     </row>
